--- a/src/test/resources/DatastoreInfo.xlsx
+++ b/src/test/resources/DatastoreInfo.xlsx
@@ -1,35 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="25875" windowHeight="15030" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16875" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Oracle_xe" sheetId="1" r:id="rId1"/>
-    <sheet name="Oracle_hoge" sheetId="2" r:id="rId2"/>
+    <sheet name="H2_DB001" sheetId="1" r:id="rId1"/>
+    <sheet name="H2_DB002" sheetId="2" r:id="rId2"/>
     <sheet name="FlatFile_test_csv" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L29"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>driverClass</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>oracle.jdbc.driver.OracleDriver</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>jdbc:oracle:thin:@localhost:1521:xe</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>connectionUrl</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -38,10 +31,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TEST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -83,14 +72,34 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.h2.Driver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.h2.Driver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jdbc:h2:mem:db001;DB_CLOSE_DELAY=-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jdbc:h2:mem:db002;DB_CLOSE_DELAY=-1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +175,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -212,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,9 +261,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,6 +296,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,81 +472,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -537,165 +554,164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
